--- a/gsp-frontend/public/Kitap1.xlsx
+++ b/gsp-frontend/public/Kitap1.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e981a855842eb82/Desktop/gsp/gsp-frontend/public/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_76B0169C912E62553700EBE31F6CD35523C2A5C3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C27143AC-1B82-4274-8E8E-B552DF52116B}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20650" windowHeight="11050"/>
+    <workbookView xWindow="0" yWindow="1098" windowWidth="23040" windowHeight="11358" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Sulamanın Adı:</t>
   </si>
@@ -70,30 +76,6 @@
   </si>
   <si>
     <t>u-r</t>
-  </si>
-  <si>
-    <t>HUBUBAT</t>
-  </si>
-  <si>
-    <t>AYÇİÇEĞİ</t>
-  </si>
-  <si>
-    <t>MISIR</t>
-  </si>
-  <si>
-    <t>DOMATES</t>
-  </si>
-  <si>
-    <t>SOĞAN</t>
-  </si>
-  <si>
-    <t>Ş.PANCARI</t>
-  </si>
-  <si>
-    <t>YONCA</t>
-  </si>
-  <si>
-    <t>PATATES</t>
   </si>
   <si>
     <r>
@@ -201,23 +183,17 @@
   <si>
     <t>TABLO 1:                 PLANLANAN   BİTKİ DESENİNE GÖRE SULAMA SUYU İHTİYACI</t>
   </si>
-  <si>
-    <t>Suluova Sulaması</t>
-  </si>
-  <si>
-    <t>DSİ Yedikır Barajı Sulama Birliği</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,13 +720,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,7 +772,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -822,6 +806,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -856,9 +841,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1031,24 +1017,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="79" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -1061,22 +1047,18 @@
       <c r="J1" s="79"/>
       <c r="K1" s="79"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
@@ -1084,7 +1066,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5">
+    <row r="3" spans="1:11" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1105,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5">
+    <row r="4" spans="1:11" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1106,7 @@
       <c r="J4" s="80"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5">
+    <row r="5" spans="1:11" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>8</v>
@@ -1155,7 +1137,7 @@
       </c>
       <c r="K5" s="83"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
@@ -1170,13 +1152,9 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="25">
-        <v>600</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1187,7 +1165,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="22" t="s">
@@ -1202,13 +1180,9 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="32">
-        <v>100</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -1219,7 +1193,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29"/>
       <c r="B10" s="33"/>
       <c r="C10" s="22" t="s">
@@ -1234,13 +1208,9 @@
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="34">
-        <v>1525</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -1251,7 +1221,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29"/>
       <c r="B12" s="35"/>
       <c r="C12" s="22" t="s">
@@ -1266,13 +1236,9 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="36">
-        <v>30</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -1283,7 +1249,7 @@
       <c r="J13" s="27"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="37"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
@@ -1298,13 +1264,9 @@
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="26">
-        <v>500</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="38"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -1315,7 +1277,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="37"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
@@ -1330,13 +1292,9 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="26">
-        <v>300</v>
-      </c>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="38"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -1347,7 +1305,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="28"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="39"/>
       <c r="B18" s="40"/>
       <c r="C18" s="22" t="s">
@@ -1362,13 +1320,9 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="40">
-        <v>25</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -1379,7 +1333,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="28"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="37"/>
       <c r="B20" s="41"/>
       <c r="C20" s="26" t="s">
@@ -1394,13 +1348,9 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="26">
-        <v>20</v>
-      </c>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="38"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -1411,10 +1361,12 @@
       <c r="J21" s="27"/>
       <c r="K21" s="28"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="37"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -1424,7 +1376,7 @@
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="42"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -1437,10 +1389,12 @@
       <c r="J23" s="27"/>
       <c r="K23" s="28"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="43"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -1450,7 +1404,7 @@
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="44"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -1463,10 +1417,12 @@
       <c r="J25" s="27"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="45"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -1476,7 +1432,7 @@
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="46"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -1489,10 +1445,12 @@
       <c r="J27" s="27"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="45"/>
       <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -1502,7 +1460,7 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="46"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -1515,10 +1473,12 @@
       <c r="J29" s="27"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="47"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -1528,7 +1488,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="48"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -1541,10 +1501,12 @@
       <c r="J31" s="27"/>
       <c r="K31" s="28"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="49"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -1554,7 +1516,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="50"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -1567,10 +1529,12 @@
       <c r="J33" s="27"/>
       <c r="K33" s="28"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="51"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -1580,7 +1544,7 @@
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="52"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -1593,7 +1557,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="28"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="49"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1606,7 +1570,7 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="53"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -1619,7 +1583,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="54" t="s">
         <v>4</v>
       </c>
@@ -1634,9 +1598,9 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="56" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="58"/>
@@ -1649,9 +1613,9 @@
       <c r="J39" s="59"/>
       <c r="K39" s="60"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="61" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B40" s="62"/>
       <c r="C40" s="63"/>
@@ -1664,9 +1628,9 @@
       <c r="J40" s="65"/>
       <c r="K40" s="66"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="67" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B41" s="68"/>
       <c r="C41" s="69">
@@ -1681,9 +1645,9 @@
       <c r="J41" s="70"/>
       <c r="K41" s="70"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="61" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B42" s="62"/>
       <c r="C42" s="63"/>
@@ -1696,9 +1660,9 @@
       <c r="J42" s="65"/>
       <c r="K42" s="66"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="67" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B43" s="68"/>
       <c r="C43" s="69">
@@ -1713,9 +1677,9 @@
       <c r="J43" s="70"/>
       <c r="K43" s="70"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="84" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
@@ -1731,7 +1695,7 @@
       <c r="J44" s="72"/>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="84"/>
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
@@ -1744,9 +1708,9 @@
       <c r="J45" s="75"/>
       <c r="K45" s="76"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="77" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B46" s="77"/>
       <c r="C46" s="77"/>
@@ -1759,7 +1723,7 @@
       <c r="J46" s="78"/>
       <c r="K46" s="78"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="77"/>
       <c r="B47" s="77"/>
       <c r="C47" s="77"/>
@@ -1787,24 +1751,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
